--- a/src/Service/importfile.xlsx
+++ b/src/Service/importfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\takl23\dbwebb-kurser\mvc\me\report\src\ExcelImport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\takl23\dbwebb-kurser\mvc\me\report\src\Service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536B4558-6B26-428F-B691-4931FA59A946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5746CF42-BAF7-468C-A84E-F76D093D1C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elområde och län" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>År</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>https://www.statistikdatabasen.scb.se/pxweb/sv/ssd/START__EN__EN0105__EN0105A/ElAnvSNI2007ArN/table/tableViewLayout1/</t>
-  </si>
-  <si>
-    <t>Gwh/år</t>
   </si>
   <si>
     <t>Year</t>
@@ -310,6 +307,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,33 +384,23 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -722,8 +712,8 @@
   </sheetPr>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -732,178 +722,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -919,440 +909,439 @@
   </sheetPr>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:V6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="9.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1015625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.41796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.9453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1015625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1015625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.20703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.20703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.47265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.05078125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.3125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.26171875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.20703125" customWidth="1"/>
-    <col min="21" max="21" width="11.62890625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.05078125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="5">
         <v>2377081</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="5">
         <v>383713</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="5">
         <v>297540</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="5">
         <v>465495</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="5">
         <v>363599</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="5">
         <v>201469</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="5">
         <v>245446</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="5">
         <v>59686</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="5">
         <v>159606</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="5">
         <v>1377827</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="5">
         <v>333848</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="5">
         <v>1725881</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="5">
         <v>282414</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="5">
         <v>304805</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="5">
         <v>275845</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="5">
         <v>287966</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="5">
         <v>287382</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="5">
         <v>245347</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="5">
         <v>130810</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="5">
         <v>271736</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="5">
         <v>250093</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2020</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="5">
         <v>2391990</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="5">
         <v>388394</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="5">
         <v>299401</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="5">
         <v>467158</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>365010</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="5">
         <v>202263</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="5">
         <v>246010</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="5">
         <v>60124</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="5">
         <v>159056</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="5">
         <v>1389336</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="5">
         <v>336748</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="5">
         <v>1734443</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="5">
         <v>282885</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="5">
         <v>305643</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="5">
         <v>277141</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="5">
         <v>287676</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="5">
         <v>287502</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="5">
         <v>244554</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="5">
         <v>131155</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="5">
         <v>273192</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="5">
         <v>249614</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="5">
         <v>2415139</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="5">
         <v>395026</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="5">
         <v>301801</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="5">
         <v>469704</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <v>367064</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="5">
         <v>203340</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="5">
         <v>247175</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="5">
         <v>61001</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="5">
         <v>158937</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="5">
         <v>1402425</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="5">
         <v>340243</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="5">
         <v>1744859</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="5">
         <v>283196</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="5">
         <v>306792</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="5">
         <v>278967</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="5">
         <v>288387</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="5">
         <v>287767</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="5">
         <v>244193</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="5">
         <v>132054</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="5">
         <v>274563</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="5">
         <v>249693</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>2022</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="5">
         <v>2440027</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="5">
         <v>400682</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="5">
         <v>302566</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="5">
         <v>471912</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="5">
         <v>369113</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="5">
         <v>204335</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="5">
         <v>247711</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="5">
         <v>61173</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="5">
         <v>158740</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="5">
         <v>1414324</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="5">
         <v>342805</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="5">
         <v>1758656</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="5">
         <v>283976</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="5">
         <v>307772</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="5">
         <v>280713</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="5">
         <v>288310</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="5">
         <v>287334</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="5">
         <v>243265</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="5">
         <v>132670</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="5">
         <v>276295</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="5">
         <v>249177</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>2023</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="5">
         <v>2454821</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="5">
         <v>404589</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="5">
         <v>301944</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="5">
         <v>472298</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="5">
         <v>368856</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="5">
         <v>203686</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="5">
         <v>246667</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="5">
         <v>61029</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="5">
         <v>157973</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="5">
         <v>1421781</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="5">
         <v>343746</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="5">
         <v>1767016</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="5">
         <v>283548</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="5">
         <v>308116</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="5">
         <v>280813</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="5">
         <v>287253</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="5">
         <v>285642</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="5">
         <v>242148</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="5">
         <v>132572</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="5">
         <v>278729</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="5">
         <v>248480</v>
       </c>
     </row>
@@ -1369,7 +1358,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD80"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1395,16 +1384,16 @@
       <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>0.40104000000000001</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>0.40104000000000001</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
         <v>0.40549000000000002</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <v>0.42087999999999998</v>
       </c>
     </row>
@@ -1412,16 +1401,16 @@
       <c r="A3">
         <v>2020</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>0.15033000000000002</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>0.15034</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>0.22103</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>0.26956999999999998</v>
       </c>
     </row>
@@ -1429,16 +1418,16 @@
       <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>0.43226999999999999</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>0.43289999999999995</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>0.67159999999999997</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>0.81865999999999994</v>
       </c>
     </row>
@@ -1446,16 +1435,16 @@
       <c r="A5">
         <v>2022</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>0.63407000000000002</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>0.6643</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>1.3786500000000002</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>1.6204799999999999</v>
       </c>
     </row>
@@ -1463,16 +1452,16 @@
       <c r="A6">
         <v>2023</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>0.45580999999999999</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>0.45587</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>0.58975999999999995</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>0.74159000000000008</v>
       </c>
     </row>
@@ -1483,15 +1472,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,121 +1497,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="5">
         <v>9906</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="6">
         <v>15199</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>79652</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="6">
         <v>22617</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2020</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="5">
         <v>9917</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>15752</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>77512</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="6">
         <v>22028</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="5">
         <v>10570</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>14377</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>82659</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="6">
         <v>23239</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2022</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="5">
         <v>10730</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>14168</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>78057</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>21230</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1634,128 +1575,128 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7">
+      <c r="A2">
         <v>2021</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>-25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7">
+      <c r="A3">
         <v>2020</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>-24.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7">
+      <c r="A4">
         <v>2019</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>-21.2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7">
+      <c r="A5">
         <v>2018</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>-18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7">
+      <c r="A6">
         <v>2017</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>-16.899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>-14.8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7">
+      <c r="A8">
         <v>2015</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>-18.2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7">
+      <c r="A9">
         <v>2014</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>-10.1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7">
+      <c r="A10">
         <v>2013</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>-5.6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7">
+      <c r="A11">
         <v>2012</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>-1.7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7">
+      <c r="A12">
         <v>2011</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>-4.7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7">
+      <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7">
+      <c r="A14">
         <v>2009</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7">
+      <c r="A15">
         <v>2008</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1769,42 +1710,42 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="B2" sqref="B2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2005</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>51</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>40</v>
       </c>
     </row>
@@ -1812,16 +1753,16 @@
       <c r="A3">
         <v>2006</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>53</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>52</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>42</v>
       </c>
     </row>
@@ -1829,16 +1770,16 @@
       <c r="A4">
         <v>2007</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>55</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>53</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>44</v>
       </c>
     </row>
@@ -1846,16 +1787,16 @@
       <c r="A5">
         <v>2008</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>57</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>54</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>44</v>
       </c>
     </row>
@@ -1863,16 +1804,16 @@
       <c r="A6">
         <v>2009</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>61</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>58</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>47</v>
       </c>
     </row>
@@ -1880,16 +1821,16 @@
       <c r="A7">
         <v>2010</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>58</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>56</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>47</v>
       </c>
     </row>
@@ -1897,16 +1838,16 @@
       <c r="A8">
         <v>2011</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>60</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>60</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>48</v>
       </c>
     </row>
@@ -1914,16 +1855,16 @@
       <c r="A9">
         <v>2012</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>62</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>60</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>50</v>
       </c>
     </row>
@@ -1931,16 +1872,16 @@
       <c r="A10">
         <v>2013</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>64</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>62</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>51</v>
       </c>
     </row>
@@ -1948,16 +1889,16 @@
       <c r="A11">
         <v>2014</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>64</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>63</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>52</v>
       </c>
     </row>
@@ -1965,16 +1906,16 @@
       <c r="A12">
         <v>2015</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>65</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>66</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>21</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>53</v>
       </c>
     </row>
@@ -1982,16 +1923,16 @@
       <c r="A13">
         <v>2016</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>65</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>65</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>27</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>53</v>
       </c>
     </row>
@@ -1999,16 +1940,16 @@
       <c r="A14">
         <v>2017</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>66</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>66</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>27</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>54</v>
       </c>
     </row>
@@ -2016,16 +1957,16 @@
       <c r="A15">
         <v>2018</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>65</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>66</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>30</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>55</v>
       </c>
     </row>
@@ -2033,16 +1974,16 @@
       <c r="A16">
         <v>2019</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>66</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>71</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>30</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>56</v>
       </c>
     </row>
@@ -2050,16 +1991,16 @@
       <c r="A17">
         <v>2020</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>66</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>74</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>32</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>60</v>
       </c>
     </row>
@@ -2067,16 +2008,16 @@
       <c r="A18">
         <v>2021</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>69</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>76</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>30</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>63</v>
       </c>
     </row>
@@ -2084,16 +2025,16 @@
       <c r="A19">
         <v>2022</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>69</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>83</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>29</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>66</v>
       </c>
     </row>
@@ -2107,584 +2048,584 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J18"/>
+      <selection activeCell="B2" sqref="B2:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7">
+      <c r="A2">
         <v>2021</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>134</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>67</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>29</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>19</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>250</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>250</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7">
+      <c r="A3">
         <v>2020</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>131</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>67</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>25</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>18</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>241</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>3</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>238</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7">
+      <c r="A4">
         <v>2019</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>126</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>67</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>21</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>18</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>232</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>6</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>226</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7">
+      <c r="A5">
         <v>2018</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>124</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>66</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>18</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>17</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>226</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>5</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>221</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7">
+      <c r="A6">
         <v>2017</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>126</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>66</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>17</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>16</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>226</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>5</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>220</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>123</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>66</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>16</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>16</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>221</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>5</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>216</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7">
+      <c r="A8">
         <v>2015</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>118</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>67</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>14</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>14</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>213</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>4</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>209</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7">
+      <c r="A9">
         <v>2014</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>113</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>11</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>14</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>204</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>3</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>201</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7">
+      <c r="A10">
         <v>2013</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>114</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>68</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>9</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>14</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>205</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>2</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>203</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7">
+      <c r="A11">
         <v>2012</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>115</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>69</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>7</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>14</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>205</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>205</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7">
+      <c r="A12">
         <v>2011</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>108</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>69</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>5</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>14</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>196</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>196</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7">
+      <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>114</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>68</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>3</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>11</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>197</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>197</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7">
+      <c r="A14">
         <v>2009</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>104</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>68</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>3</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>11</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <v>186</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <v>186</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7">
+      <c r="A15">
         <v>2008</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>101</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>67</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>10</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>180</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>0</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <v>180</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7">
+      <c r="A16">
         <v>2007</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>100</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>69</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>9</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>179</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <v>179</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7">
+      <c r="A17">
         <v>2006</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>95</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>68</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>8</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>172</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <v>172</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7">
+      <c r="A18">
         <v>2005</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>89</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>68</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>7</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <v>165</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <v>0</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <v>165</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>413</v>
       </c>
     </row>
@@ -2730,23 +2671,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2757,7 +2698,7 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D3" t="s">
@@ -2774,7 +2715,7 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D4" t="s">
@@ -2791,7 +2732,7 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D5" t="s">

--- a/src/Service/importfile.xlsx
+++ b/src/Service/importfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\takl23\dbwebb-kurser\mvc\me\report\src\Service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5746CF42-BAF7-468C-A84E-F76D093D1C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85311D7B-9D7E-4763-B6E4-EA17E69F244D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elområde och län" sheetId="9" r:id="rId1"/>
@@ -308,7 +308,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -393,7 +393,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1502,16 +1502,16 @@
         <v>2019</v>
       </c>
       <c r="B2" s="5">
-        <v>9906</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6">
-        <v>15199</v>
+        <v>90</v>
       </c>
       <c r="D2" s="6">
-        <v>79652</v>
+        <v>635</v>
       </c>
       <c r="E2" s="6">
-        <v>22617</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1519,16 +1519,16 @@
         <v>2020</v>
       </c>
       <c r="B3" s="5">
-        <v>9917</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6">
-        <v>15752</v>
+        <v>89</v>
       </c>
       <c r="D3" s="6">
-        <v>77512</v>
+        <v>635</v>
       </c>
       <c r="E3" s="6">
-        <v>22028</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1536,16 +1536,16 @@
         <v>2021</v>
       </c>
       <c r="B4" s="5">
-        <v>10570</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6">
-        <v>14377</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6">
-        <v>82659</v>
+        <v>757</v>
       </c>
       <c r="E4" s="6">
-        <v>23239</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1553,16 +1553,16 @@
         <v>2022</v>
       </c>
       <c r="B5" s="5">
-        <v>10730</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6">
-        <v>14168</v>
+        <v>53</v>
       </c>
       <c r="D5" s="6">
-        <v>78057</v>
+        <v>722</v>
       </c>
       <c r="E5" s="6">
-        <v>21230</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2639,7 +2639,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
